--- a/biology/Botanique/Arundinaria_tecta/Arundinaria_tecta.xlsx
+++ b/biology/Botanique/Arundinaria_tecta/Arundinaria_tecta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arundinaria tecta est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Bambusoideae, originaire des États-Unis. C'est un bambou, graminée vivace aux rhizomes allongés, leptomorphes, et aux tiges ligneuses dressées (ou cannes) qui peuvent atteindre 2,5 mètres de long et 2 cm de diamètre. Cette espèce, très proche d'Arundinaria gigantea mais de taille plus petite, est considérée comme une sous-espèce de cette dernière par certains auteurs. Elle formait autrefois, avec les autres espèces du genre Arundinaria, des peuplements denses, appelés canebrakes, dans le Sud-Est des États-Unis. Ces formations qui étaient caractéristiques du paysage de ces régions sont aujourd'hui un écosystème en danger d'extinction.
 </t>
@@ -511,16 +523,18 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Arundinaria tecta est une plante herbacée vivace, rhizomateuse, aux tiges ligneuses pouvant atteindre 2,5 mètres de long et 2 cm de diamètre.
 Les rhizomes sont normalement horizontaux sur une courte distance, puis se redressent pour former une tige (chaume). Ils présentent des canaux aérifères qui permettent à la plante de supporter les sols saturés en eau.
 Les chaumes ont des entrenœuds térètes dans les parties végétatives.
-Les feuilles culmaires, persistantes ou tardivement caduques, présentent une gaine de 11 à 18 cm de long et un limbe court de 2,5 à 4 cm de long[2].
+Les feuilles culmaires, persistantes ou tardivement caduques, présentent une gaine de 11 à 18 cm de long et un limbe court de 2,5 à 4 cm de long.
 Les feuilles développées du feuillage présentent une ligule abaxiale, fimbriée à lacérée, parfois ciliée, et un limbe coriace, persistant, toujours vert, de 7 à 23 cm de long sur 1 à 2 cm de large.
 Les épillets longs de 3 à 5 cm, comptent de 6 à 12 fleurons, le premier étant parfois stérile.
 Les glumes, inégales, sont glabres ou pubescentes. La glume inférieure peut être absente. Les lemmes, longues de 1,2 à 2 cm, sont généralement glabres.
-La fruit est un caryopse oblong, présentant un bec[2]. 
+La fruit est un caryopse oblong, présentant un bec. 
 </t>
         </is>
       </c>
@@ -551,8 +565,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Catalogue of Life                                   (15 juin 2017)[3] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (15 juin 2017) :
 Arundinaria gigantea subsp. tecta (Walter) McClure
 Arundinaria gigantea var. tecta (Walter) Scribn.
 Arundinaria macrosperma var. suffruticosa Munro, nom. superfl.
@@ -565,8 +584,43 @@
 Festuca grandiflora Lam.
 Ludolfia tecta (Walter) A.Dietr.
 Miegia pumila Nutt. ex Rupr.
-Liste des variétés
-Selon Tropicos                                           (15 juin 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Arundinaria_tecta</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arundinaria_tecta</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (15 juin 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Arundinaria tecta var. colorata Rupr.
 variété Arundinaria tecta var. decidua Beadle
 variété Arundinaria tecta var. distachya Rupr.
@@ -574,35 +628,37 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Arundinaria_tecta</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Arundinaria_tecta</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition d'Arundinaria tecta s'étend dans le Sud-Est des États-Unis, dans les États suivants : Alabama, Caroline du Nord, Caroline du Sud, Floride, Géorgie, Louisiane, Maryland, Mississippi, Virginie[4].
-Cette espèce préfère des sites plus humides qu'Arundinaria gigantea et se rencontre principalement dans les plaines côtières. On la trouve notamment dans les sous-bois marécageux et sur les rives sableuses des cours d'eau[5].
-Cette espèce, avec les deux autres espèces d'Arundinaria connues, formait autrefois des fourrés impénétrables appelés canebrakes, qui sont aujourd'hui un écosystème en voie de disparition, ne représentant plus que 2 % de son extension originelle[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition d'Arundinaria tecta s'étend dans le Sud-Est des États-Unis, dans les États suivants : Alabama, Caroline du Nord, Caroline du Sud, Floride, Géorgie, Louisiane, Maryland, Mississippi, Virginie.
+Cette espèce préfère des sites plus humides qu'Arundinaria gigantea et se rencontre principalement dans les plaines côtières. On la trouve notamment dans les sous-bois marécageux et sur les rives sableuses des cours d'eau.
+Cette espèce, avec les deux autres espèces d'Arundinaria connues, formait autrefois des fourrés impénétrables appelés canebrakes, qui sont aujourd'hui un écosystème en voie de disparition, ne représentant plus que 2 % de son extension originelle.
 </t>
         </is>
       </c>
